--- a/Excel/UnitAttributesDataConfig.xlsx
+++ b/Excel/UnitAttributesDataConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7225A69-6EC0-4ED1-BC1C-E44A1E2352DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4994609C-2752-4FB0-B530-806B719EC269}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="28800" windowHeight="15470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -15,20 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,6 +42,10 @@
   </si>
   <si>
     <t>UnitAttributesDataSupportorId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,85 +468,85 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.25" style="6" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.26953125" style="6" customWidth="1"/>
     <col min="4" max="4" width="33" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="28.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="28.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.26953125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5" t="s">
+    <row r="4" spans="1:5" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="C4" s="7" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C4" s="7" t="s">
-        <v>2</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C6" s="8">
         <v>10001</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6" s="4">
         <v>10001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C7" s="8"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C8" s="8"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
